--- a/Tables/GROWTH_EST_MAN_rob.xlsx
+++ b/Tables/GROWTH_EST_MAN_rob.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">R2</t>
   </si>
   <si>
-    <t xml:space="preserve">* p &lt; 0.1, ** p &lt; 0.05, *** p &lt; 0.01</t>
+    <t xml:space="preserve">+ p &lt; 0.1, * p &lt; 0.05, ** p &lt; 0.01, *** p &lt; 0.001</t>
   </si>
   <si>
     <t xml:space="preserve">FD</t>
@@ -53,43 +53,43 @@
     <t xml:space="preserve">0.0718***</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.0044)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.3610)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.2573)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4730**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.2377)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2433***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.5826)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6521***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.3461)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8146***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.2500)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FD-TFE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0038**</t>
+    <t xml:space="preserve">(0.0045)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.3580)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2566)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4707*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2376)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2357***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.5858)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6517***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.3458)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8143**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2503)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD-FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0038*</t>
   </si>
   <si>
     <t xml:space="preserve">(0.0015)</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">(0.6005)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8345**</t>
+    <t xml:space="preserve">0.8345*</t>
   </si>
   <si>
     <t xml:space="preserve">(0.4161)</t>
@@ -134,13 +134,13 @@
     <t xml:space="preserve">(1.1756)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4843**</t>
+    <t xml:space="preserve">1.4843*</t>
   </si>
   <si>
     <t xml:space="preserve">(0.7338)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8435**</t>
+    <t xml:space="preserve">0.8435*</t>
   </si>
   <si>
     <t xml:space="preserve">(0.3522)</t>
@@ -149,13 +149,13 @@
     <t xml:space="preserve">(0.4348)</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.5303*</t>
+    <t xml:space="preserve">-0.5303+</t>
   </si>
   <si>
     <t xml:space="preserve">(0.3107)</t>
   </si>
   <si>
-    <t xml:space="preserve">FD Elas</t>
+    <t xml:space="preserve">FD ES</t>
   </si>
   <si>
     <t xml:space="preserve">0.0728***</t>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">(0.0678)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1185***</t>
+    <t xml:space="preserve">0.1185**</t>
   </si>
   <si>
     <t xml:space="preserve">(0.0455)</t>
@@ -197,43 +197,43 @@
     <t xml:space="preserve">(0.0210)</t>
   </si>
   <si>
-    <t xml:space="preserve">FD-TFE Elas</t>
+    <t xml:space="preserve">FD-FE ES</t>
   </si>
   <si>
     <t xml:space="preserve">(0.0010)</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.8511***</t>
+    <t xml:space="preserve">-0.8506***</t>
   </si>
   <si>
     <t xml:space="preserve">(0.1373)</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.2472**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1249)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2535*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1404)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8081***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0452)</t>
+    <t xml:space="preserve">-0.2473*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1252)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2528+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1407)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8083***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0460)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.0215)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.0349)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FE Elas</t>
+    <t xml:space="preserve">(0.0350)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FE ES</t>
   </si>
   <si>
     <t xml:space="preserve">(0.0013)</t>
@@ -245,13 +245,13 @@
     <t xml:space="preserve">(0.1886)</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.4732*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.2638)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1833)</t>
+    <t xml:space="preserve">-0.4732+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2637)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1830)</t>
   </si>
   <si>
     <t xml:space="preserve">0.8488***</t>
@@ -260,10 +260,121 @@
     <t xml:space="preserve">(0.0543)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.0711)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0920)</t>
+    <t xml:space="preserve">(0.0712)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0919)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0310***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0034)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.5498***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0430)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0835*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0377)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0639**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0195)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9322***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0371)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0690+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0409)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0199)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD-FE E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0008)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4258***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0408)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0626+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0362)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0166)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8903***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0235)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0136)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0121)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FE E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4078***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0832)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0654)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0581+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0320)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9058***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0331)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0729*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0336)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0259)</t>
   </si>
 </sst>
 </file>
@@ -675,6 +786,9 @@
     <col min="5" max="5" width="10.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="10.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="10.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="10.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="10.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="NA" customHeight="1">
@@ -699,6 +813,15 @@
       <c r="G1" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="2" ht="NA" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -722,6 +845,15 @@
       <c r="G2" s="2" t="n">
         <v>-0.0002</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>-0.0004</v>
+      </c>
     </row>
     <row r="3" ht="NA" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -744,6 +876,15 @@
       </c>
       <c r="G3" s="3" t="s">
         <v>74</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
@@ -751,7 +892,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-0.5524</v>
+        <v>-0.5597</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>27</v>
@@ -768,6 +909,15 @@
       <c r="G4" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
       <c r="A5" s="3" t="s">
@@ -790,6 +940,15 @@
       </c>
       <c r="G5" s="3" t="s">
         <v>76</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" ht="NA" customHeight="1">
@@ -797,7 +956,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0.1088</v>
+        <v>0.1038</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>0.3573</v>
@@ -814,6 +973,15 @@
       <c r="G6" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>-0.0972</v>
+      </c>
     </row>
     <row r="7" ht="NA" customHeight="1">
       <c r="A7" s="3" t="s">
@@ -836,6 +1004,15 @@
       </c>
       <c r="G7" s="3" t="s">
         <v>78</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" ht="NA" customHeight="1">
@@ -860,6 +1037,15 @@
       <c r="G8" s="3" t="n">
         <v>0.1105</v>
       </c>
+      <c r="H8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>-0.0153</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="9" ht="NA" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -882,6 +1068,15 @@
       </c>
       <c r="G9" s="3" t="s">
         <v>79</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="10" ht="NA" customHeight="1">
@@ -906,6 +1101,15 @@
       <c r="G10" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="H10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="11" ht="NA" customHeight="1">
       <c r="A11" s="3" t="s">
@@ -928,6 +1132,15 @@
       </c>
       <c r="G11" s="3" t="s">
         <v>81</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="12" ht="NA" customHeight="1">
@@ -952,6 +1165,15 @@
       <c r="G12" s="3" t="n">
         <v>0.0897</v>
       </c>
+      <c r="H12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>0.0109</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="13" ht="NA" customHeight="1">
       <c r="A13" s="3" t="s">
@@ -974,6 +1196,15 @@
       </c>
       <c r="G13" s="3" t="s">
         <v>82</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="14" ht="NA" customHeight="1">
@@ -998,6 +1229,15 @@
       <c r="G14" s="3" t="n">
         <v>-0.0802</v>
       </c>
+      <c r="H14" s="3" t="n">
+        <v>-0.0052</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>0.0166</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>-0.0416</v>
+      </c>
     </row>
     <row r="15" ht="NA" customHeight="1">
       <c r="A15" s="4" t="s">
@@ -1020,6 +1260,15 @@
       </c>
       <c r="G15" s="4" t="s">
         <v>83</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" ht="NA" customHeight="1">
@@ -1027,7 +1276,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>0.541</v>
+        <v>0.539</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>0.136</v>
@@ -1044,33 +1293,51 @@
       <c r="G16" s="1" t="n">
         <v>0.956</v>
       </c>
+      <c r="H16" s="1" t="n">
+        <v>0.936</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>0.961</v>
+      </c>
     </row>
     <row r="17" ht="NA" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A17:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
